--- a/Assets/Excels/excel_files/Enum.xlsx
+++ b/Assets/Excels/excel_files/Enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\Team12SoloProject\Assets\Excels\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90648F95-F28A-4081-9043-F18D94FE7E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554146C7-873C-4522-9714-B414475B16ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43485" yWindow="4395" windowWidth="29640" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45675" yWindow="3105" windowWidth="29640" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enum" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>ItemType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,30 @@
   </si>
   <si>
     <t>MaxMp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NpcInteractionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crafting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,15 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.58203125" bestFit="1" customWidth="1"/>
@@ -589,6 +613,26 @@
         <v>27</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Excels/excel_files/Enum.xlsx
+++ b/Assets/Excels/excel_files/Enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\Team12SoloProject\Assets\Excels\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554146C7-873C-4522-9714-B414475B16ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B272AB-3480-4601-8CD5-84628536910F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45675" yWindow="3105" windowWidth="29640" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2260" yWindow="2870" windowWidth="19760" windowHeight="10040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enum" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>ItemType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,22 @@
   </si>
   <si>
     <t>Quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortraitPositionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -633,6 +649,20 @@
         <v>32</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
